--- a/biology/Botanique/Tillandsia_mezii/Tillandsia_mezii.xlsx
+++ b/biology/Botanique/Tillandsia_mezii/Tillandsia_mezii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia mezii André ex Mez est une plante de la famille des Bromeliaceae.
 Le terme mezii est une auto-dédicace à l'auteur du taxon. Ceci n'est cependant pas une marque de mégalomanie mais s'explique par le fait que Mez a publié les données d'une plante récoltée, décrite et nommée par E. André dans un courrier adressé par celui-ci à Mez.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia mezii André ex Mez, in C.DC., Monogr. Phan. : 738 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « foliis dense rosulatis, supra densissime subtus laxius lepidibus conspicuis, adpressis tessellatis, haud undulatis ; inflorescentia scapo glabriusculo v. paullo lepidoto elata, erecta, nunc simplicissima disticha flabellata nunc furcata e spicis 2 flabellatis composita ; bracteis imbricatis, flores manifeste superantibus ; floribus erectis ; sepalis liberis, valde asymmetricis ; petalis albidis, stamina longe superantibus ; stylo quam ovarium 5-6-plo longiore. »
-Type : Mez[1] cite deux spécimens sans désigner lequel il choisit comme type. Étant donné le contexte, il s'agit probablement de l'exemplaire collecté par André mais la désignation n'est pas explicite.
+Type : Mez cite deux spécimens sans désigner lequel il choisit comme type. Étant donné le contexte, il s'agit probablement de l'exemplaire collecté par André mais la désignation n'est pas explicite.
 - leg André, n° 4502 ; "Ecuador, prope Riobamba, alt. 3500 m." ; Herb. André.
 - leg Lehmann ; "ad Loxa" ; Herb. Berol., Kew.
 </t>
@@ -550,10 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-Tillandsia seemannii var. mezii (André ex Mez) L.B.Sm.
-Synonymie taxonomique
-Caraguata pulchella André[1]</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tillandsia seemannii var. mezii (André ex Mez) L.B.Sm.</t>
         </is>
       </c>
     </row>
@@ -578,10 +595,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Caraguata pulchella André</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,16 +631,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante vivace herbacée ; épiphyte[1].
-Habitat : ?
-Altitude : 3500 m[1].</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,14 +659,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du sud :
- Équateur
-Chimborazo[1]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Biotype : plante vivace herbacée ; épiphyte.
+Habitat : ?
+Altitude : 3500 m.</t>
         </is>
       </c>
     </row>
@@ -668,10 +693,46 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du sud :
+ Équateur
+Chimborazo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_mezii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_mezii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
